--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 9/NKBH_DLNgocKimAnh_070922.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 9/NKBH_DLNgocKimAnh_070922.xlsx
@@ -15,14 +15,14 @@
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$M$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$N$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Nhập kho đổi thiết bị khác</t>
   </si>
   <si>
-    <t>Tên Khách hàng: Đại lý Ngọc Kim Anh</t>
-  </si>
-  <si>
     <t>Số: PNK : 02……………….</t>
   </si>
   <si>
@@ -112,6 +109,18 @@
   </si>
   <si>
     <t>KT Kho</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>ĐL Etuka</t>
+  </si>
+  <si>
+    <t>ĐL Ngọc Kim Anh</t>
+  </si>
+  <si>
+    <t>WP21120135S02798 Chỉ thiết bị không kèm phụ kiện</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,12 +203,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -231,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -303,6 +306,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -310,7 +370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -338,16 +398,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -367,9 +436,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,19 +443,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -416,23 +515,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>326478</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>454901</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -449,8 +548,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="57150" y="314325"/>
-          <a:ext cx="1638300" cy="0"/>
+          <a:off x="3118288" y="1065487"/>
+          <a:ext cx="1639285" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -469,19 +568,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
+      <xdr:colOff>131380</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>157655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440121</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>139702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -500,8 +599,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85726" y="561976"/>
-          <a:ext cx="2095500" cy="581024"/>
+          <a:off x="131380" y="157655"/>
+          <a:ext cx="3100551" cy="494426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -803,84 +902,88 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="5.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="15" t="s">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="23" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="23" t="s">
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="23" t="s">
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -896,8 +999,9 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -906,22 +1010,21 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -934,127 +1037,151 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="H7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="40"/>
+      <c r="N8" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="27" t="s">
+      <c r="B9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="30">
+        <v>2</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="14" t="s">
+      <c r="M9" s="40"/>
+      <c r="N9" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="25" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="26" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1063,13 +1190,14 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1078,43 +1206,60 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1122,38 +1267,43 @@
     <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
+  <mergeCells count="30">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="G1:L3"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
